--- a/Iskugina K 844-1/задача с лекции.xlsx
+++ b/Iskugina K 844-1/задача с лекции.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -110,21 +110,12 @@
     <t>1. открыть стандартное приложение калькулятора win 10</t>
   </si>
   <si>
-    <t>2. набрать функцию сложения 1+1</t>
-  </si>
-  <si>
     <t>3. набрать функцию сложения 2+2</t>
   </si>
   <si>
-    <t>4. набрать функцию сложения 3+3</t>
-  </si>
-  <si>
     <t>5. набрать функцию сложения 4+4</t>
   </si>
   <si>
-    <t>6. набрать функцию сложения 5+5</t>
-  </si>
-  <si>
     <t>7. набрать функцию сложения 6+6</t>
   </si>
   <si>
@@ -143,13 +134,10 @@
     <t>http://joxi.ru/Y2LgwZofvJG1jm</t>
   </si>
   <si>
-    <t>http://joxi.ru/82QownlC4vbJQr</t>
-  </si>
-  <si>
-    <t>http://joxi.ru/52aqwjDs03xyb2</t>
-  </si>
-  <si>
     <t>http://joxi.ru/zANEwRoIwzOqO2</t>
+  </si>
+  <si>
+    <t>http://joxi.ru/52aqwjDs03xJb2</t>
   </si>
 </sst>
 </file>
@@ -214,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,51 +213,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -558,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,228 +599,220 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>36</v>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -838,6 +821,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -882,15 +866,12 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
@@ -902,32 +883,30 @@
       <c r="A26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="F8:F14"/>
-    <mergeCell ref="H8:H14"/>
-    <mergeCell ref="I8:I14"/>
-    <mergeCell ref="J8:J14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="C2:C7"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="G2:G7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G8" r:id="rId2"/>
-    <hyperlink ref="G9" r:id="rId3"/>
-    <hyperlink ref="G10" r:id="rId4"/>
-    <hyperlink ref="G11" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
